--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\autoForSe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128EBCEF-7AF0-4E51-ACB8-1DF92670D0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D0F52-7D97-4F5D-8A99-25F6614A3B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="2520" windowWidth="30936" windowHeight="16776" tabRatio="671" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="671" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var" sheetId="19" r:id="rId1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="332">
   <si>
     <t>!</t>
   </si>
@@ -295,9 +295,6 @@
   <si>
     <t>Common-Common</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common-Discrete</t>
   </si>
   <si>
     <t>Common-Discrete</t>
@@ -1334,21 +1331,6 @@
     <t>  neighbor UNDERLAY send-community</t>
   </si>
   <si>
-    <t>  neighbor UNDERLAY remote-as 65000</t>
-  </si>
-  <si>
-    <t>  neighbor 100.101.1.1 peer group UNDERLAY</t>
-  </si>
-  <si>
-    <t>  neighbor 100.101.1.1 description Spine-01</t>
-  </si>
-  <si>
-    <t>  neighbor 100.102.1.1 peer group UNDERLAY</t>
-  </si>
-  <si>
-    <t>  neighbor 100.102.1.1 description Spine-02</t>
-  </si>
-  <si>
     <t>  redistribute connected route-map Loopback</t>
   </si>
   <si>
@@ -1391,9 +1373,6 @@
     <t>{%  for INTERFACE in INTERFACES %}</t>
   </si>
   <si>
-    <t>  neighbor interface {{ INTERFACE.ETHERNET }} peer-group UNDERLAY remote-as 65000</t>
-  </si>
-  <si>
     <t>{%  endfor%}</t>
   </si>
   <si>
@@ -1428,13 +1407,48 @@
   </si>
   <si>
     <t>  seq 20 permit {{ PERMIT_IP }} eq 32</t>
+  </si>
+  <si>
+    <t>Common-Common</t>
+  </si>
+  <si>
+    <t>  neighbor UNDERLAY remote-as {{ SPINE_BGP_ASN }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{%for INTERFACE in INTERFACES %}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{%if TYPE == "Leaf" or TYPE == "BL"%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  {%endfor%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  {%for SPINE in SPINES %}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  neighbor {{ SPINE.IP }} peer group UNDERLAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  neighbor {{ SPINE.IP }} description {{ SPINE.HOSTNAME }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  neighbor interface {{ INTERFACE.ETHERNET }} peer-group UNDERLAY remote-as {{ SPINE_BGP_ASN }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1561,6 +1575,23 @@
       <name val="D2Coding"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1705,7 +1736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1802,6 +1833,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1810,9 +1856,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2536,7 +2579,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2570,24 +2613,24 @@
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
       <c r="L1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="N1" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="4"/>
@@ -2600,17 +2643,17 @@
       <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="34">
         <v>40</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>46</v>
+      <c r="D3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>323</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -2619,78 +2662,78 @@
         <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="34">
         <v>200</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>195</v>
+      <c r="D4" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>194</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="27"/>
       <c r="I4" s="26"/>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="34">
         <v>1000</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="34">
         <v>65000</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="27"/>
       <c r="I5" s="26"/>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="6">
         <v>300</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="34">
         <v>65000.1</v>
       </c>
       <c r="G6" s="26"/>
@@ -2698,34 +2741,34 @@
       <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="6">
         <v>65000.201000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="27"/>
       <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="6">
         <v>2</v>
@@ -2734,15 +2777,15 @@
       <c r="H8" s="27"/>
       <c r="I8" s="26"/>
       <c r="L8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>251</v>
+      <c r="A9" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>42</v>
@@ -2756,13 +2799,13 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
@@ -2771,7 +2814,7 @@
       <c r="H10" s="27"/>
       <c r="I10" s="26"/>
       <c r="L10" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2782,39 +2825,39 @@
         <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="27"/>
       <c r="I11" s="26"/>
       <c r="L11" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="L12" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>31</v>
@@ -2823,24 +2866,24 @@
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="L13" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>55</v>
+      <c r="D14" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2850,27 +2893,27 @@
       <c r="B15" s="6">
         <v>15</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="33" t="s">
         <v>52</v>
       </c>
+      <c r="E15" s="34" t="s">
+        <v>51</v>
+      </c>
       <c r="L15" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="6"/>
       <c r="D16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6"/>
       <c r="L16" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2880,44 +2923,44 @@
       <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="9">
-        <v>30</v>
+      <c r="E17" s="35">
+        <v>31</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="6">
         <v>300</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="34">
         <f>IF(Var_P2P_Subnet_mask=31,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" s="6">
         <v>300</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="34">
         <f>IF(Var_P2P_Subnet_mask=31,1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2925,7 +2968,7 @@
         <v>44</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" t="str">
         <f>LEFT(Var_PTP_IPv4,FIND(".",Var_PTP_IPv4))</f>
@@ -2945,13 +2988,13 @@
         <v>35</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" t="str">
         <f>LEFT(Var_PTP_IPv4,FIND(".",Var_PTP_IPv4)-1)</f>
@@ -2968,13 +3011,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E22" s="11">
         <v>0</v>
@@ -2982,13 +3025,13 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>244</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="11">
         <v>30000</v>
@@ -2996,10 +3039,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>245</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3031,151 +3074,151 @@
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="79.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="32" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="35" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="35" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="35" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="35" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="35" t="s">
-        <v>313</v>
-      </c>
-    </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="32" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="35" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="32" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="35" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="32" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="35" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="35" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="35" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="35" t="s">
-        <v>303</v>
-      </c>
-    </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="35" t="s">
-        <v>295</v>
+      <c r="A20" s="32" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="35" t="s">
-        <v>304</v>
+      <c r="A21" s="32" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="35" t="s">
-        <v>305</v>
+      <c r="A22" s="32" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="35" t="s">
-        <v>314</v>
+      <c r="A23" s="32" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="35" t="s">
-        <v>156</v>
-      </c>
-    </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="32" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3199,83 +3242,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="35" t="s">
-        <v>322</v>
+      <c r="A1" s="32" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="35" t="s">
-        <v>323</v>
+      <c r="A2" s="32" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="35" t="s">
-        <v>288</v>
+      <c r="A4" s="32" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="35" t="s">
-        <v>319</v>
+      <c r="A5" s="32" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="35" t="s">
-        <v>290</v>
+      <c r="A6" s="32" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="35" t="s">
-        <v>320</v>
+      <c r="A9" s="32" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="35" t="s">
-        <v>321</v>
+      <c r="A11" s="32" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="35" t="s">
-        <v>150</v>
+      <c r="A13" s="32" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="35" t="s">
-        <v>324</v>
+      <c r="A14" s="32" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="35" t="s">
-        <v>264</v>
+      <c r="A16" s="32" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3289,7 +3332,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3298,63 +3341,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="35" t="s">
-        <v>327</v>
+      <c r="A1" s="32" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="35" t="s">
-        <v>325</v>
+      <c r="A3" s="32" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="35" t="s">
-        <v>328</v>
+      <c r="A4" s="32" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="35" t="s">
-        <v>326</v>
+      <c r="A7" s="32" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="35" t="s">
-        <v>329</v>
+      <c r="A10" s="32" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="35" t="s">
-        <v>264</v>
+      <c r="A12" s="32" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3367,7 +3410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A2:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -3383,17 +3426,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3401,47 +3444,47 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3449,27 +3492,27 @@
         <v>3</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3477,57 +3520,57 @@
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3542,7 +3585,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3562,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -3576,40 +3619,40 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J2" s="19" t="s">
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
@@ -3620,16 +3663,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F3" s="20">
         <v>65000.1</v>
@@ -3641,11 +3684,11 @@
         <v>22</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J3" s="20"/>
       <c r="L3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3653,16 +3696,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F4" s="20">
         <v>65000.2</v>
@@ -3674,11 +3717,11 @@
         <v>23</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J4" s="21"/>
       <c r="L4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3686,16 +3729,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F5" s="20">
         <v>65000.3</v>
@@ -3707,11 +3750,11 @@
         <v>24</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J5" s="20"/>
       <c r="L5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3719,16 +3762,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F6" s="20">
         <v>65000.4</v>
@@ -3740,7 +3783,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J6" s="21"/>
     </row>
@@ -3749,28 +3792,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="20">
         <v>65000.201000000001</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J7" s="20"/>
       <c r="R7" s="10"/>
@@ -3780,16 +3823,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F8" s="20">
         <v>65000.201999999997</v>
@@ -3798,10 +3841,10 @@
         <v>17</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J8" s="21"/>
       <c r="R8" s="10"/>
@@ -3811,26 +3854,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F9" s="20">
         <v>65000</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J9" s="20"/>
       <c r="R9" s="10"/>
@@ -3840,26 +3883,26 @@
         <v>8</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F10" s="21">
         <v>65000</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J10" s="21"/>
     </row>
@@ -3877,8 +3920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3894,47 +3937,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="32"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3942,24 +3985,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3967,24 +4010,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3992,24 +4035,24 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4017,24 +4060,24 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4042,24 +4085,24 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4067,24 +4110,24 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4092,24 +4135,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4117,24 +4160,24 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4142,24 +4185,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4167,24 +4210,24 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4192,24 +4235,24 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4217,24 +4260,24 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4242,24 +4285,24 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4267,24 +4310,24 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4303,7 +4346,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4312,72 +4355,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="32" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="35" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="35" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="35" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="32" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="35" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="32" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="35" t="s">
-        <v>264</v>
-      </c>
-    </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="32" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4391,8 +4434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFDF5E8-2EC0-48B5-B43D-2F3FC4CFC044}">
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A10:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4401,222 +4444,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="32" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="35" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="35" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="32" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="35" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="35" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="35" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="35" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="35" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="35" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="35" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="32" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="35" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="35" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="35" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="35" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="35" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="35" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="32" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="35" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="35" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="35" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="32" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="35" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="35" t="s">
-        <v>274</v>
-      </c>
-    </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="32" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4640,52 +4683,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="32" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="35" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="35" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="35" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="32" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="35" t="s">
-        <v>284</v>
-      </c>
-    </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="32" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4699,9 +4742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA39CE7-BDA1-49C8-832E-6F0880A2479C}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -4709,33 +4750,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="32" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="35" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="32" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="35" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="35" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="32" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="35" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4749,7 +4790,7 @@
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4758,143 +4799,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="35" t="s">
-        <v>307</v>
+      <c r="A1" s="32" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="32" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="35" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="35" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="32" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="35" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="32" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="35" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="32" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="35" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="32" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="35" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="32" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="35" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="32" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="35" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="35" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="32" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="35" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="32" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="35" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="32" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="35" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="35" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="35" t="s">
-        <v>306</v>
-      </c>
-    </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="35" t="s">
-        <v>264</v>
+      <c r="A28" s="32" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4917,53 +4958,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="32" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="35" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="35" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="35" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="35" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="35" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="35" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="32" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="35" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\autoForSe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D0F52-7D97-4F5D-8A99-25F6614A3B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B866DFA4-F0BD-409F-9559-305B1580C36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="671" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="671" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var" sheetId="19" r:id="rId1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="323">
   <si>
     <t>!</t>
   </si>
@@ -174,9 +174,6 @@
     <t>banner login</t>
   </si>
   <si>
-    <t xml:space="preserve">GlobalTelecom and Arista Networks </t>
-  </si>
-  <si>
     <t>EOF</t>
   </si>
   <si>
@@ -427,35 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Et1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Et2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Et4</t>
-  </si>
-  <si>
-    <t>Et5</t>
-  </si>
-  <si>
-    <t>Et6</t>
-  </si>
-  <si>
-    <t>Et2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Et7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Et8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fabric 규모 결정( 논리적 디자인 규모)       </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -780,26 +748,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Et1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D1-Leaf-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Et2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D1-Leaf-02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Et3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D1-Leaf-03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -808,31 +764,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Et4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Et5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Et6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D1-Spine-02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Et1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D1-Leaf-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Et3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1223,48 +1159,12 @@
     <t>hostname {{ HOSTNAME }}</t>
   </si>
   <si>
-    <t>{%if ADMIN_USER_NAME != "" and ADMIN_USER_PW != "" %}</t>
-  </si>
-  <si>
     <t>username {{ ADMIN_USER_NAME }} privilege {{ ADMIN_PRIVILEGE }} secret {{ ADMIN_USER_PW }}</t>
   </si>
   <si>
     <t>{%endif%}</t>
   </si>
   <si>
-    <t xml:space="preserve">! terminal length 값이 ansible로 처음 배포되면 switch에 적용은 되나 ansible 동작은 비정상 종료됨 </t>
-  </si>
-  <si>
-    <t>! 4.23.1 부터 MTU 디폴트 변경 가능</t>
-  </si>
-  <si>
-    <t>! EVE-NG에서는 기본 IP MTU 인 1500 을 사용</t>
-  </si>
-  <si>
-    <t>! interface defaults</t>
-  </si>
-  <si>
-    <t>!   mtu 9214</t>
-  </si>
-  <si>
-    <t>logging format timestamp traditional</t>
-  </si>
-  <si>
-    <t>  interval 1200 min-rx 1200 multiplier 3 default</t>
-  </si>
-  <si>
-    <t>! 개인적인 스크립트 사용</t>
-  </si>
-  <si>
-    <t>  no shutdown</t>
-  </si>
-  <si>
-    <t>    no shutdown</t>
-  </si>
-  <si>
-    <t>! terminal length {{ TERMINAL_LENGTH }}</t>
-  </si>
-  <si>
     <t>terminal width {{ TERMINAL_WIDTH }}</t>
   </si>
   <si>
@@ -1280,167 +1180,278 @@
     <t>mac address-table aging-time {{ MAC_AGING }}</t>
   </si>
   <si>
-    <t>  vrf {{ MGMT_VRF }}</t>
-  </si>
-  <si>
-    <t>  description RouterID_EVPN</t>
-  </si>
-  <si>
-    <t>  seq 10 permit 1.1.1.0/24 eq 32</t>
-  </si>
-  <si>
-    <t>  match ip address prefix-list Loopback</t>
-  </si>
-  <si>
-    <t>  ip address {{ LOOPBACK0 }}/32</t>
-  </si>
-  <si>
-    <t>  no switchport</t>
-  </si>
-  <si>
-    <t>{%for INTERFACE in INTERFACES %}</t>
-  </si>
-  <si>
     <t>interface {{ INTERFACE.ETHERNET }}</t>
   </si>
   <si>
-    <t>  ip address {{ INTERFACE.IP }}</t>
-  </si>
-  <si>
-    <t>{%endfor%}</t>
-  </si>
-  <si>
-    <t>  bgp asn notation asdot</t>
-  </si>
-  <si>
-    <t>  no bgp default ipv4-unicast</t>
-  </si>
-  <si>
-    <t>  maximum-paths 8 ecmp 8</t>
-  </si>
-  <si>
-    <t>  bgp listen range 100.64.0.0/10 peer-group UNDERLAY peer-filter Leaf-ASs</t>
-  </si>
-  <si>
-    <t>  !</t>
-  </si>
-  <si>
-    <t>  neighbor UNDERLAY peer group</t>
-  </si>
-  <si>
-    <t>  neighbor UNDERLAY send-community</t>
-  </si>
-  <si>
-    <t>  redistribute connected route-map Loopback</t>
-  </si>
-  <si>
-    <t>  address-family ipv4</t>
-  </si>
-  <si>
-    <t>    neighbor UNDERLAY activate</t>
-  </si>
-  <si>
-    <t>  10 match as-range 1-4294967295 result accept</t>
-  </si>
-  <si>
     <t>router bgp {{ BGP_ASN }}</t>
   </si>
   <si>
-    <t>  router-id {{ LOOPBACK0 }}</t>
-  </si>
-  <si>
     <t>{%if TYPE == "Spine"%}</t>
   </si>
   <si>
-    <t>{%if TYPE == "Leaf" or TYPE == "BL"%}</t>
-  </si>
-  <si>
-    <t>  no ip address</t>
-  </si>
-  <si>
-    <t>  ipv6 enable</t>
-  </si>
-  <si>
-    <t>  bgp listen range fe80::/10 peer-group UNDERLAY peer-filter Leaf-Ass</t>
-  </si>
-  <si>
-    <t>    neighbor UNDERLAY next-hop address-family ipv6 originate</t>
-  </si>
-  <si>
-    <t>  router-id 1.1.1.{{ ID }}</t>
-  </si>
-  <si>
-    <t>{%  for INTERFACE in INTERFACES %}</t>
-  </si>
-  <si>
-    <t>{%  endfor%}</t>
-  </si>
-  <si>
-    <t>  channel-group 1000 mode active</t>
-  </si>
-  <si>
-    <t>  switchport mode trunk</t>
-  </si>
-  <si>
     <t>vlan 4093</t>
   </si>
   <si>
-    <t>{%if ETC_PORTS.INTERFACES%}</t>
-  </si>
-  <si>
-    <t>{%for INTERFACE in ETC_PORTS.INTERFACES %}</t>
-  </si>
-  <si>
-    <t>  ip address {{ ETC_PORTS.IP }}</t>
-  </si>
-  <si>
-    <t>  description VTEP</t>
-  </si>
-  <si>
-    <t>  vxlan source-interface Loopback1</t>
-  </si>
-  <si>
-    <t>{%if LOOPBACK1 != ""%}</t>
-  </si>
-  <si>
-    <t>  ip address {{ LOOPBACK1 }}</t>
-  </si>
-  <si>
-    <t>  seq 20 permit {{ PERMIT_IP }} eq 32</t>
-  </si>
-  <si>
     <t>Common-Common</t>
   </si>
   <si>
-    <t>  neighbor UNDERLAY remote-as {{ SPINE_BGP_ASN }}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{%for INTERFACE in INTERFACES %}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{%if TYPE == "Leaf" or TYPE == "BL"%}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  {%endfor%}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  {%for SPINE in SPINES %}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>  neighbor {{ SPINE.IP }} peer group UNDERLAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>  neighbor {{ SPINE.IP }} description {{ SPINE.HOSTNAME }}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>  neighbor interface {{ INTERFACE.ETHERNET }} peer-group UNDERLAY remote-as {{ SPINE_BGP_ASN }}</t>
+    <t>interface {{ INTERFACE.ETHERNET }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminal length {{ TERMINAL_LENGTH }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  no shutdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  vrf {{ MGMT_VRF }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    no shutdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  description RouterID_EVPN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  seq 10 permit 1.1.1.0/24 eq 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  match ip address prefix-list Loopback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  no switchport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address {{ INTERFACE.IP }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  bgp asn notation asdot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  router-id {{ LOOPBACK0 }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  no bgp default ipv4-unicast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  maximum-paths 8 ecmp 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  bgp listen range 100.64.0.0/10 peer-group UNDERLAY peer-filter Leaf-ASs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  neighbor UNDERLAY peer group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  neighbor UNDERLAY send-community</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  neighbor UNDERLAY remote-as {{ SPINE_BGP_ASN }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  neighbor {{ SPINE.IP }} peer group UNDERLAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  neighbor {{ SPINE.IP }} description {{ SPINE.HOSTNAME }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  redistribute connected route-map Loopback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  address-family ipv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    neighbor UNDERLAY activate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  10 match as-range 1-4294967295 result accept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  no ip address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ipv6 enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  router-id 1.1.1.{{ ID }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  bgp listen range fe80::/10 peer-group UNDERLAY peer-filter Leaf-Ass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  neighbor interface {{ INTERFACE.ETHERNET }} peer-group UNDERLAY remote-as {{ SPINE_BGP_ASN }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    neighbor UNDERLAY next-hop address-family ipv6 originate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  channel-group 1000 mode active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  switchport mode trunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address {{ ETC_PORTS.IP }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  description VTEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address {{ LOOPBACK1 }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  vxlan source-interface Loopback1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  seq 20 permit {{ PERMIT_IP }} eq 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address {{ LOOPBACK0 }}/32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  interval 1200 min-rx 1200 multiplier 3 default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vrf instance {{ MGMT_VRF }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface {{ MGMT_INTERFACE }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eth1</t>
+  </si>
+  <si>
+    <t>Eth2</t>
+  </si>
+  <si>
+    <t>Eth3</t>
+  </si>
+  <si>
+    <t>Eth4</t>
+  </si>
+  <si>
+    <t>Eth5</t>
+  </si>
+  <si>
+    <t>Eth6</t>
+  </si>
+  <si>
+    <t>Eth7</t>
+  </si>
+  <si>
+    <t>Eth8</t>
+  </si>
+  <si>
+    <t>{%-if ADMIN_USER_NAME != "" and ADMIN_USER_PW != "" %}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{%-endif%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{%-for INTERFACE in INTERFACES %}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{%-endfor%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{%-if TYPE == "Spine"%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{%-if TYPE == "Leaf" or TYPE == "BL"%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{%-  for INTERFACE in INTERFACES %}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{%-  endfor%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{%-if ETC_PORTS.INTERFACES%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{%-for INTERFACE in ETC_PORTS.INTERFACES %}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{%-if LOOPBACK1 != ""%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  {%-for SPINE in SPINES %}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  {%-endfor%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip route vrf {{ MGMT_VRF }} 0/0 {{ MGMT_GW }}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address {{ HOST_IP }}/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">i-Cloud and Arista Networks </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1448,7 +1459,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1593,6 +1604,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="D2Coding"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1736,7 +1754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1846,6 +1864,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2600,37 +2621,37 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4"/>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
       <c r="L1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="N1" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="28" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="4"/>
@@ -2644,71 +2665,71 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="33" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B3" s="34">
         <v>40</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>323</v>
+        <v>255</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="33" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B4" s="34">
         <v>200</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="27"/>
       <c r="I4" s="26"/>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="33" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B5" s="34">
         <v>1000</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="34">
         <v>65000</v>
@@ -2717,21 +2738,21 @@
       <c r="H5" s="27"/>
       <c r="I5" s="26"/>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B6" s="6">
         <v>300</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="34">
         <v>65000.1</v>
@@ -2742,19 +2763,19 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="36" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="6">
         <v>65000.201000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="27"/>
@@ -2762,13 +2783,13 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="6">
         <v>2</v>
@@ -2777,18 +2798,18 @@
       <c r="H8" s="27"/>
       <c r="I8" s="26"/>
       <c r="L8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="33" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="6">
         <v>4</v>
@@ -2799,13 +2820,13 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
@@ -2814,134 +2835,134 @@
       <c r="H10" s="27"/>
       <c r="I10" s="26"/>
       <c r="L10" s="18" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="27"/>
       <c r="I11" s="26"/>
       <c r="L11" s="18" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="L12" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="L13" s="18" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="6">
         <v>15</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="6"/>
       <c r="D16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="6"/>
       <c r="L16" s="18" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D17" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="35">
         <v>31</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="6">
         <v>300</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E18" s="34">
         <f>IF(Var_P2P_Subnet_mask=31,0,1)</f>
@@ -2950,13 +2971,13 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B19" s="6">
         <v>300</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E19" s="34">
         <f>IF(Var_P2P_Subnet_mask=31,1,2)</f>
@@ -2965,10 +2986,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" t="str">
         <f>LEFT(Var_PTP_IPv4,FIND(".",Var_PTP_IPv4))</f>
@@ -2985,16 +3006,16 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" t="str">
         <f>LEFT(Var_PTP_IPv4,FIND(".",Var_PTP_IPv4)-1)</f>
@@ -3011,13 +3032,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E22" s="11">
         <v>0</v>
@@ -3025,13 +3046,13 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E23" s="11">
         <v>30000</v>
@@ -3039,10 +3060,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3074,7 +3095,7 @@
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3084,117 +3105,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="32" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="32" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="32" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="32" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="32" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="32" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="32" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="32" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="32" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="32" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="32" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="32" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="32" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="32" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="32" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="32" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="32" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="32" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="32" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="32" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="32" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="32" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="32" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -3204,7 +3225,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="32" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -3214,7 +3235,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="32" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -3233,7 +3254,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3258,17 +3279,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="32" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="32" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="32" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -3283,7 +3304,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="32" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -3293,7 +3314,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="32" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -3303,12 +3324,12 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="32" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="32" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -3318,7 +3339,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="32" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3332,7 +3353,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3342,7 +3363,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="32" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -3352,12 +3373,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="32" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="32" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3372,7 +3393,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="32" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3387,7 +3408,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="32" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -3397,7 +3418,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="32" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3426,17 +3447,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="12" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3444,47 +3465,47 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="13" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="13" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3492,27 +3513,27 @@
         <v>3</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="13" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" s="13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3520,57 +3541,57 @@
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="13" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" s="13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" s="12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" s="12" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="12" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" s="12" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="12" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3605,7 +3626,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -3619,40 +3640,40 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="19" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="M2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
@@ -3663,32 +3684,32 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F3" s="20">
         <v>65000.1</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="J3" s="20"/>
       <c r="L3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3696,32 +3717,32 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F4" s="20">
         <v>65000.2</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="J4" s="21"/>
       <c r="L4" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3729,32 +3750,32 @@
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="F5" s="20">
         <v>65000.3</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="J5" s="20"/>
       <c r="L5" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3762,28 +3783,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="F6" s="20">
         <v>65000.4</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="J6" s="21"/>
     </row>
@@ -3792,28 +3813,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F7" s="20">
         <v>65000.201000000001</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="J7" s="20"/>
       <c r="R7" s="10"/>
@@ -3823,28 +3844,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F8" s="20">
         <v>65000.201999999997</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="J8" s="21"/>
       <c r="R8" s="10"/>
@@ -3854,26 +3875,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="F9" s="20">
         <v>65000</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="J9" s="20"/>
       <c r="R9" s="10"/>
@@ -3883,26 +3904,26 @@
         <v>8</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F10" s="21">
         <v>65000</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="20" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="J10" s="21"/>
     </row>
@@ -3920,8 +3941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3931,53 +3952,53 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="37"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3985,24 +4006,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>174</v>
+        <v>299</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="29" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>174</v>
+        <v>299</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="29" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4010,24 +4031,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>176</v>
+        <v>300</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="29" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>174</v>
+        <v>299</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="29" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4035,24 +4056,24 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>178</v>
+        <v>301</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="29" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>174</v>
+        <v>299</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="29" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4060,24 +4081,24 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>181</v>
+        <v>302</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="29" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="29" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4085,24 +4106,24 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="29" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="29" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4110,24 +4131,24 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>183</v>
+        <v>304</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="29" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="29" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4135,24 +4156,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="29" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="29" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4160,24 +4181,24 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="29" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="29" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4185,24 +4206,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>187</v>
+        <v>301</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="29" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="29" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4210,24 +4231,24 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="29" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="29" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4235,24 +4256,24 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="29" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="29" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4260,24 +4281,24 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="29" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="29" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4285,24 +4306,24 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>85</v>
+        <v>305</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>85</v>
+        <v>305</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4310,24 +4331,24 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>86</v>
+        <v>306</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -4343,10 +4364,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692A7508-36A0-4871-AEC3-C754290327A7}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4361,7 +4382,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="32" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4396,12 +4417,12 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="32" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="32" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4411,17 +4432,52 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="32" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="32" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="32" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="37" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="32" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4432,10 +4488,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFDF5E8-2EC0-48B5-B43D-2F3FC4CFC044}">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A10:A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4445,42 +4501,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="32" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="32" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="32" t="s">
-        <v>275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="32" t="s">
-        <v>0</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="32" t="s">
-        <v>265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="32" t="s">
-        <v>266</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="32" t="s">
-        <v>267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="32" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -4490,27 +4546,27 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="32" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="32" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="32" t="s">
-        <v>3</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="32" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="32" t="s">
-        <v>269</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -4520,27 +4576,27 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="32" t="s">
-        <v>276</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="32" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="32" t="s">
-        <v>153</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="32" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="32" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -4550,116 +4606,51 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="32" t="s">
-        <v>278</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="32" t="s">
-        <v>0</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="32" t="s">
-        <v>279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="32" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="32" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="32" t="s">
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="32" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="32" t="s">
-        <v>151</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="32" t="s">
-        <v>14</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="32" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="32" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="32" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="32" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="32" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4674,7 +4665,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4689,12 +4680,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="32" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="32" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4709,7 +4700,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="32" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -4724,7 +4715,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="32" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -4742,7 +4733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA39CE7-BDA1-49C8-832E-6F0880A2479C}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -4751,7 +4744,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="32" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -4761,22 +4754,22 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="32" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="32" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="32" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="32" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4790,7 +4783,7 @@
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4800,127 +4793,127 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="32" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="32" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="32" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="32" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="32" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="32" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="32" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="32" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="32" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="32" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="32" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="32" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="32" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="32" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="32" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="32" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="32" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="32" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="32" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="32" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="32" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="32" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="32" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="32" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="32" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -4930,12 +4923,12 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="32" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="32" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -4949,7 +4942,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4959,7 +4952,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="32" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -4969,27 +4962,27 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="32" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="32" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="32" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4999,12 +4992,12 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="32" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="32" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\autoForSe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B866DFA4-F0BD-409F-9559-305B1580C36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB75CB46-775E-40FD-BE64-4ADCB73BAC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="671" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="671" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var" sheetId="19" r:id="rId1"/>
@@ -29,18 +29,18 @@
   </sheets>
   <definedNames>
     <definedName name="Var_Arp_aging">Var!$B$19</definedName>
-    <definedName name="Var_LeafP2P_Host_IP">Var!$E$19</definedName>
+    <definedName name="Var_LeafP2P_Host_IP">Var!$E$18</definedName>
     <definedName name="Var_Logging_buffered">Var!$B$5</definedName>
     <definedName name="Var_Mac_aging">Var!$B$18</definedName>
     <definedName name="Var_Mgmt_gw">Var!$B$9</definedName>
     <definedName name="Var_MGMT_vrf">Var!$B$8</definedName>
     <definedName name="Var_Min_file">Var!$B$22</definedName>
-    <definedName name="Var_P2P_Subnet_mask">Var!$E$17</definedName>
+    <definedName name="Var_P2P_Subnet_mask">Var!$E$16</definedName>
     <definedName name="Var_Password">Var!$B$14</definedName>
     <definedName name="Var_Privilege">Var!$B$15</definedName>
-    <definedName name="Var_PTP_IPv4">Var!$E$15</definedName>
+    <definedName name="Var_PTP_IPv4">Var!$E$14</definedName>
     <definedName name="Var_Spine_Num">Var!$E$8</definedName>
-    <definedName name="Var_SpineP2P_Host_IP">Var!$E$18</definedName>
+    <definedName name="Var_SpineP2P_Host_IP">Var!$E$17</definedName>
     <definedName name="Var_STP_mode">Var!$B$7</definedName>
     <definedName name="Var_Terminal_length">Var!$B$3</definedName>
     <definedName name="Var_Terminal_width">Var!$B$4</definedName>
@@ -71,7 +71,7 @@
     <author>민경욱</author>
   </authors>
   <commentList>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="317">
   <si>
     <t>!</t>
   </si>
@@ -692,87 +692,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>D1-Spine-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1-Leaf-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1-BL-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1-Spine-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1-BL-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1-Leaf-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1-BL-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>D1-Spine-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1-Leaf-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1-Leaf-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1-Leaf-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1-Spine-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>D1-Spine-02</t>
-  </si>
-  <si>
-    <t>D1-Spine-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1-Leaf-01</t>
-  </si>
-  <si>
-    <t>D1-Leaf-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>D1-Leaf-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>D1-Leaf-03</t>
-  </si>
-  <si>
-    <t>D1-Leaf-04</t>
-  </si>
-  <si>
-    <t>D1-BL-01</t>
-  </si>
-  <si>
-    <t>D1-BL-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1-BL-02</t>
-  </si>
-  <si>
-    <t>D1-Spine-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1-BL-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1-Leaf-04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1-BL-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1-Spine-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1-Leaf-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1-Leaf-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1-Leaf-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1-Spine-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1-Spine-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1-Leaf-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1-Leaf-03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -858,10 +834,6 @@
   </si>
   <si>
     <t>D1-Spine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1-Leaf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1452,6 +1424,18 @@
   </si>
   <si>
     <t xml:space="preserve">i-Cloud and Arista Networks </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefix &amp; Define Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variables Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1-Leaf|D1-BL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1612,7 +1596,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1673,8 +1657,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1734,17 +1730,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1754,7 +1739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1767,28 +1752,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -1839,31 +1806,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1877,6 +1823,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2600,7 +2570,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2620,65 +2590,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="L1" s="16" t="s">
+      <c r="E1" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="L1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="4"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="28">
         <v>40</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="E3" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="L3" t="s">
         <v>44</v>
       </c>
@@ -2693,21 +2665,21 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="28">
         <v>200</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="26"/>
+      <c r="E4" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="20"/>
       <c r="L4" t="s">
         <v>45</v>
       </c>
@@ -2722,21 +2694,21 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="28">
         <v>1000</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="28">
         <v>65000</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="26"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
       <c r="L5" t="s">
         <v>46</v>
       </c>
@@ -2745,251 +2717,263 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="29">
         <v>300</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="28">
         <v>65000.1</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="26"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="29">
         <v>65000.201000000001</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="26"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="29">
         <v>2</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="26"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="20"/>
       <c r="L8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="29">
         <v>4</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="26"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="29">
         <v>2</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="26"/>
-      <c r="L10" s="18" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="20"/>
+      <c r="L10" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="26"/>
-      <c r="L11" s="18" t="s">
+      <c r="E11" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="L11" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="29"/>
+      <c r="D12" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="L12" s="18" t="s">
+      <c r="E12" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="L12" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="L13" s="18" t="s">
+      <c r="D13" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="L13" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="18" t="s">
+      <c r="D14" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="29">
         <v>15</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="L15" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="D16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="L16" s="18" t="s">
+      <c r="B16" s="29"/>
+      <c r="D16" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="28">
+        <v>31</v>
+      </c>
+      <c r="L16" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="35">
-        <v>31</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="6">
-        <v>300</v>
-      </c>
-      <c r="D18" s="36" t="s">
+      <c r="D17" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E17" s="28">
         <f>IF(Var_P2P_Subnet_mask=31,0,1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="L17" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="29">
         <v>300</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D18" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E18" s="28">
         <f>IF(Var_P2P_Subnet_mask=31,1,2)</f>
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="29">
+        <v>300</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="29" t="s">
         <v>66</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="30">
+        <v>0</v>
       </c>
       <c r="G20" t="str">
         <f>LEFT(Var_PTP_IPv4,FIND(".",Var_PTP_IPv4))</f>
@@ -3005,17 +2989,17 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>75</v>
+      <c r="D21" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="30">
+        <v>30000</v>
       </c>
       <c r="G21" t="str">
         <f>LEFT(Var_PTP_IPv4,FIND(".",Var_PTP_IPv4)-1)</f>
@@ -3025,63 +3009,51 @@
         <f>MID(Var_PTP_IPv4,FIND(".",Var_PTP_IPv4)+1,FIND(".",Var_PTP_IPv4,FIND(".",Var_PTP_IPv4)+1)-(FIND(".",Var_PTP_IPv4)+1))</f>
         <v>101</v>
       </c>
-      <c r="I21" s="14" t="str">
+      <c r="I21" s="8" t="str">
         <f>MID(Var_PTP_IPv4, FIND(".",Var_PTP_IPv4,FIND(".",Var_PTP_IPv4)+1)+1,  FIND(".",Var_PTP_IPv4,FIND(".",Var_PTP_IPv4,FIND(".",Var_PTP_IPv4)+1)+1)-(FIND(".",Var_PTP_IPv4,FIND(".",Var_PTP_IPv4)+1)+1))</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="11">
-        <v>30000</v>
+      <c r="A23" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>228</v>
+      <c r="A24" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16" xr:uid="{2B8BD857-3AEB-4F43-A67F-B1B57B945C94}">
       <formula1>"30,31"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13" xr:uid="{7BA3750F-B5CE-491D-926D-A09988E69CED}">
       <formula1>$M$3:$M$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$N$3:$N$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19" xr:uid="{CA16C854-1A7F-41B6-8115-80BA64D19F82}">
       <formula1>$O$3:$O$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -3104,142 +3076,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
-        <v>252</v>
+      <c r="A1" s="23" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="32" t="s">
-        <v>266</v>
+      <c r="A2" s="23" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="32" t="s">
-        <v>283</v>
+      <c r="A3" s="23" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="23" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="32" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="23" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="32" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="32" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="32" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="32" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="32" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="32" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="32" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="32" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="32" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="23" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="32" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="32" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="32" t="s">
-        <v>286</v>
-      </c>
-    </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="23" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="23" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="23" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3263,83 +3235,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
-        <v>315</v>
+      <c r="A1" s="23" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="32" t="s">
-        <v>316</v>
+      <c r="A2" s="23" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="32" t="s">
-        <v>251</v>
+      <c r="A4" s="23" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="32" t="s">
-        <v>287</v>
+      <c r="A5" s="23" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="32" t="s">
-        <v>310</v>
+      <c r="A6" s="23" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="32" t="s">
-        <v>288</v>
+      <c r="A9" s="23" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="32" t="s">
-        <v>254</v>
+      <c r="A11" s="23" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="23" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="32" t="s">
-        <v>289</v>
+      <c r="A14" s="23" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="32" t="s">
-        <v>308</v>
+      <c r="A16" s="23" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3362,63 +3334,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
-        <v>317</v>
+      <c r="A1" s="23" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="32" t="s">
-        <v>290</v>
+      <c r="A3" s="23" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="32" t="s">
-        <v>291</v>
+      <c r="A4" s="23" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="32" t="s">
-        <v>292</v>
+      <c r="A7" s="23" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="32" t="s">
-        <v>293</v>
+      <c r="A10" s="23" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="32" t="s">
-        <v>308</v>
+      <c r="A12" s="23" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3432,165 +3404,165 @@
   <dimension ref="A2:B29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12" style="12"/>
-    <col min="2" max="2" width="90.75" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="12" style="12"/>
+    <col min="1" max="1" width="12" style="6"/>
+    <col min="2" max="2" width="90.75" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="12" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="12">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12">
+      <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12">
+      <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3606,7 +3578,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3625,307 +3597,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="14">
+        <v>65000.1</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="J3" s="14"/>
+      <c r="L3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="14">
+        <v>65000.2</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="L4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="14">
+        <v>65000.3</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="L5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="14">
+        <v>65000.4</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="14">
+        <v>65000.201000000001</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>178</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="J7" s="14"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="14">
+        <v>65000.201999999997</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="14">
+        <v>65000</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="15">
+        <v>65000</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="F3" s="20">
-        <v>65000.1</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="L3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="F4" s="20">
-        <v>65000.2</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="L4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="20">
-        <v>65000.3</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="J5" s="20"/>
-      <c r="L5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="15">
-        <v>4</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="20">
-        <v>65000.4</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="15">
-        <v>5</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="F7" s="20">
-        <v>65000.201000000001</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="15">
-        <v>6</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="F8" s="20">
-        <v>65000.201999999997</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="R8" s="10"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="15">
-        <v>7</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="F9" s="20">
-        <v>65000</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="R9" s="10"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="15">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="F10" s="21">
-        <v>65000</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="J10" s="21"/>
+      <c r="J10" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3941,8 +3913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3958,397 +3930,397 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="38"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>224</v>
+      <c r="I2" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="15">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="29" t="s">
+      <c r="F12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="22" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="29" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="29" t="s">
+      <c r="F13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="15">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="15">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="29" t="s">
+      <c r="F14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="22" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="15">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="29" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="15">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="15">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="15">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="15">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="15">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="29" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="15">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="15">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4367,7 +4339,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4376,108 +4348,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="32" t="s">
-        <v>242</v>
+      <c r="A2" s="23" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="32" t="s">
-        <v>243</v>
+      <c r="A9" s="23" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="32" t="s">
-        <v>307</v>
+      <c r="A10" s="23" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="32" t="s">
-        <v>244</v>
+      <c r="A12" s="23" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="32" t="s">
-        <v>308</v>
+      <c r="A13" s="23" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="32" t="s">
-        <v>296</v>
+      <c r="A15" s="23" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="32" t="s">
-        <v>297</v>
+      <c r="A16" s="23" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="37" t="s">
-        <v>298</v>
+      <c r="A17" s="24" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="32" t="s">
-        <v>259</v>
+      <c r="A18" s="23" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="32" t="s">
-        <v>321</v>
+      <c r="A19" s="23" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="32" t="s">
-        <v>297</v>
+      <c r="A20" s="23" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="32" t="s">
-        <v>320</v>
+      <c r="A21" s="23" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4490,7 +4462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFDF5E8-2EC0-48B5-B43D-2F3FC4CFC044}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -4500,157 +4472,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
-        <v>257</v>
+      <c r="A1" s="23" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="32" t="s">
-        <v>246</v>
+      <c r="A2" s="23" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="32" t="s">
-        <v>247</v>
+      <c r="A4" s="23" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="23" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="32" t="s">
-        <v>248</v>
+      <c r="A8" s="23" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="23" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="23" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="32" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="23" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="32" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="32" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="32" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="32" t="s">
-        <v>259</v>
-      </c>
-    </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="32" t="s">
-        <v>260</v>
+      <c r="A30" s="23" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="23" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4674,52 +4646,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="32" t="s">
-        <v>261</v>
+      <c r="A2" s="23" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="32" t="s">
-        <v>294</v>
+      <c r="A3" s="23" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="32" t="s">
-        <v>262</v>
+      <c r="A6" s="23" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="32" t="s">
-        <v>263</v>
+      <c r="A9" s="23" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="23" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4743,33 +4715,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
-        <v>309</v>
+      <c r="A1" s="23" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="23" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="32" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="32" t="s">
-        <v>265</v>
-      </c>
-    </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="32" t="s">
-        <v>310</v>
+      <c r="A6" s="23" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4792,143 +4764,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
-        <v>252</v>
+      <c r="A1" s="23" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="23" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="32" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="23" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="32" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="23" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="32" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="23" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="32" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="32" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="23" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="32" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="23" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="32" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="32" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="32" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="32" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="32" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="32" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="32" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="32" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="32" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="32" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="32" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="32" t="s">
-        <v>280</v>
-      </c>
-    </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="32" t="s">
-        <v>308</v>
+      <c r="A28" s="23" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4951,52 +4923,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
-        <v>309</v>
+      <c r="A1" s="23" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="32" t="s">
-        <v>251</v>
+      <c r="A3" s="23" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="32" t="s">
-        <v>264</v>
+      <c r="A4" s="23" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="32" t="s">
-        <v>281</v>
+      <c r="A5" s="23" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="32" t="s">
-        <v>282</v>
+      <c r="A6" s="23" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="32" t="s">
-        <v>310</v>
+      <c r="A7" s="23" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="23" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="23" t="s">
         <v>146</v>
       </c>
     </row>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\autoForSe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB75CB46-775E-40FD-BE64-4ADCB73BAC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F09CD30-074D-44BD-A7D2-232A9C40EF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="671" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="671" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Var" sheetId="19" r:id="rId1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="318">
   <si>
     <t>!</t>
   </si>
@@ -805,32 +805,6 @@
   <si>
     <t>Num.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.22.193</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.22.194</t>
-  </si>
-  <si>
-    <t>192.168.22.195</t>
-  </si>
-  <si>
-    <t>192.168.22.196</t>
-  </si>
-  <si>
-    <t>192.168.22.197</t>
-  </si>
-  <si>
-    <t>192.168.22.198</t>
-  </si>
-  <si>
-    <t>192.168.22.191</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.22.192</t>
   </si>
   <si>
     <t>D1-Spine</t>
@@ -1438,12 +1412,45 @@
     <t>D1-Leaf|D1-BL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>* Border Leaf 사용시 Leaf Pre Hostname과 
+Border Leaf Pre Hostname 을 같이 적어주세요
+형식은 Leaf Pre Hostname 과 Border Leaf Pre Hostname 사이에 | 를 넣어서 입력해주세요.
+추후 개선예정입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.22.200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.22.201</t>
+  </si>
+  <si>
+    <t>192.168.22.202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.22.203</t>
+  </si>
+  <si>
+    <t>192.168.22.204</t>
+  </si>
+  <si>
+    <t>192.168.22.205</t>
+  </si>
+  <si>
+    <t>192.168.22.206</t>
+  </si>
+  <si>
+    <t>192.168.22.207</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1595,6 +1602,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1670,7 +1685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1730,6 +1745,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1739,7 +1763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1815,15 +1839,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1847,6 +1862,21 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2569,8 +2599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2580,7 +2610,7 @@
     <col min="3" max="3" width="3.875" customWidth="1"/>
     <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.375" customWidth="1"/>
     <col min="8" max="8" width="18.375" customWidth="1"/>
     <col min="9" max="9" width="19.75" customWidth="1"/>
     <col min="12" max="12" width="18.875" bestFit="1" customWidth="1"/>
@@ -2590,17 +2620,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>314</v>
+      <c r="E1" s="26" t="s">
+        <v>306</v>
       </c>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
@@ -2619,14 +2649,14 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="26"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2636,17 +2666,17 @@
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <v>40</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>246</v>
+      <c r="E3" s="25" t="s">
+        <v>238</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
@@ -2665,16 +2695,16 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="25">
         <v>200</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="25" t="s">
         <v>169</v>
       </c>
       <c r="G4" s="20"/>
@@ -2694,16 +2724,16 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="25">
         <v>1000</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="25">
         <v>65000</v>
       </c>
       <c r="G5" s="20"/>
@@ -2717,16 +2747,16 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="26">
         <v>300</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="25">
         <v>65000.1</v>
       </c>
       <c r="G6" s="20"/>
@@ -2734,16 +2764,16 @@
       <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="26">
         <v>65000.201000000001</v>
       </c>
       <c r="F7" t="s">
@@ -2754,16 +2784,16 @@
       <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="26">
         <v>2</v>
       </c>
       <c r="G8" s="20"/>
@@ -2774,16 +2804,16 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="B9" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="26">
         <v>4</v>
       </c>
       <c r="G9" s="20"/>
@@ -2791,16 +2821,16 @@
       <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="26">
         <v>2</v>
       </c>
       <c r="G10" s="20"/>
@@ -2811,17 +2841,17 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="29" t="s">
-        <v>186</v>
+      <c r="E11" s="26" t="s">
+        <v>178</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="21"/>
@@ -2831,15 +2861,18 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="D12" s="34" t="s">
+      <c r="B12" s="26"/>
+      <c r="D12" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>316</v>
+      <c r="E12" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>309</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -2849,18 +2882,19 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="25" t="s">
         <v>53</v>
       </c>
+      <c r="F13" s="36"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
@@ -2869,110 +2903,114 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="25" t="s">
         <v>50</v>
       </c>
+      <c r="F14" s="36"/>
       <c r="L14" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="26">
         <v>15</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="36"/>
       <c r="L15" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="D16" s="32" t="s">
+      <c r="B16" s="26"/>
+      <c r="D16" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="25">
         <v>31</v>
       </c>
+      <c r="F16" s="36"/>
       <c r="L16" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="25">
         <f>IF(Var_P2P_Subnet_mask=31,0,1)</f>
         <v>0</v>
       </c>
+      <c r="F17" s="36"/>
       <c r="L17" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="26">
         <v>300</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="25">
         <f>IF(Var_P2P_Subnet_mask=31,1,2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="26">
         <v>300</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="27">
         <v>0</v>
       </c>
       <c r="G20" t="str">
@@ -2989,16 +3027,16 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="27">
         <v>30000</v>
       </c>
       <c r="G21" t="str">
@@ -3015,30 +3053,33 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="26" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>217</v>
+      <c r="A23" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>219</v>
+      <c r="A24" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F12:F17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16" xr:uid="{2B8BD857-3AEB-4F43-A67F-B1B57B945C94}">
@@ -3077,117 +3118,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="23" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="23" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="23" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="23" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="23" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="23" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="23" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="23" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="23" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="23" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="23" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="23" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="23" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="23" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="23" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="23" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="23" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="23" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="23" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="23" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="23" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="23" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="23" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -3236,12 +3277,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="23" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="23" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -3251,17 +3292,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="23" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="23" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="23" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -3276,7 +3317,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="23" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -3286,7 +3327,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="23" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -3301,7 +3342,7 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="23" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -3311,7 +3352,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="23" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3335,7 +3376,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="23" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -3345,12 +3386,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="23" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="23" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3365,7 +3406,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="23" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3380,7 +3421,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="23" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -3390,7 +3431,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="23" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3577,8 +3618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3665,7 +3706,7 @@
         <v>171</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F3" s="14">
         <v>65000.1</v>
@@ -3677,7 +3718,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>178</v>
+        <v>312</v>
       </c>
       <c r="J3" s="14"/>
       <c r="L3" t="s">
@@ -3698,7 +3739,7 @@
         <v>171</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F4" s="14">
         <v>65000.2</v>
@@ -3710,7 +3751,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>179</v>
+        <v>313</v>
       </c>
       <c r="J4" s="15"/>
       <c r="L4" t="s">
@@ -3731,7 +3772,7 @@
         <v>171</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F5" s="14">
         <v>65000.3</v>
@@ -3743,7 +3784,7 @@
         <v>23</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>180</v>
+        <v>314</v>
       </c>
       <c r="J5" s="14"/>
       <c r="L5" t="s">
@@ -3764,7 +3805,7 @@
         <v>171</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F6" s="14">
         <v>65000.4</v>
@@ -3776,7 +3817,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>181</v>
+        <v>315</v>
       </c>
       <c r="J6" s="15"/>
     </row>
@@ -3794,7 +3835,7 @@
         <v>172</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F7" s="14">
         <v>65000.201000000001</v>
@@ -3806,7 +3847,7 @@
         <v>167</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>182</v>
+        <v>316</v>
       </c>
       <c r="J7" s="14"/>
       <c r="R7" s="5"/>
@@ -3825,7 +3866,7 @@
         <v>172</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F8" s="14">
         <v>65000.201999999997</v>
@@ -3837,7 +3878,7 @@
         <v>168</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>183</v>
+        <v>317</v>
       </c>
       <c r="J8" s="15"/>
       <c r="R8" s="5"/>
@@ -3856,7 +3897,7 @@
         <v>173</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F9" s="14">
         <v>65000</v>
@@ -3866,7 +3907,7 @@
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="J9" s="14"/>
       <c r="R9" s="5"/>
@@ -3885,7 +3926,7 @@
         <v>173</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F10" s="15">
         <v>65000</v>
@@ -3895,7 +3936,7 @@
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="14" t="s">
-        <v>185</v>
+        <v>311</v>
       </c>
       <c r="J10" s="15"/>
     </row>
@@ -3913,7 +3954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -3930,47 +3971,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="25"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3981,21 +4022,21 @@
         <v>156</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="22" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="22" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4006,21 +4047,21 @@
         <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>158</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="22" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4031,21 +4072,21 @@
         <v>156</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="22" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>159</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4056,21 +4097,21 @@
         <v>160</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="22" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>154</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="22" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4081,21 +4122,21 @@
         <v>160</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="22" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="22" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4106,21 +4147,21 @@
         <v>160</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="22" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>155</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="22" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4131,21 +4172,21 @@
         <v>161</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="22" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>150</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="22" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4156,21 +4197,21 @@
         <v>161</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="22" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>162</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="22" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4181,21 +4222,21 @@
         <v>161</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="22" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>163</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="22" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4206,21 +4247,21 @@
         <v>149</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="22" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>154</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="22" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4231,21 +4272,21 @@
         <v>149</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="22" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="22" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4256,21 +4297,21 @@
         <v>152</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="22" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>155</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="22" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4281,21 +4322,21 @@
         <v>153</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>155</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4306,21 +4347,21 @@
         <v>151</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>155</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4354,7 +4395,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="23" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4389,12 +4430,12 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="23" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="23" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4404,12 +4445,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="23" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="23" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4419,37 +4460,37 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="23" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="23" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="24" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="23" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="23" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="23" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="23" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -4473,12 +4514,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="23" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="23" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4488,7 +4529,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="23" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4508,7 +4549,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="23" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -4518,7 +4559,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="23" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4528,7 +4569,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="23" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -4558,7 +4599,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="23" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -4583,7 +4624,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="23" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -4608,17 +4649,17 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="23" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="23" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="23" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -4652,12 +4693,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="23" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="23" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4672,7 +4713,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="23" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -4687,7 +4728,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="23" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -4716,7 +4757,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="23" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -4726,22 +4767,22 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="23" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="23" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="23" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="23" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4765,127 +4806,127 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="23" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="23" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="23" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="23" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="23" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="23" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="23" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="23" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="23" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="23" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="23" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="23" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="23" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="23" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="23" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="23" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="23" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="23" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="23" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="23" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="23" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="23" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="23" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="23" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="23" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -4895,12 +4936,12 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="23" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="23" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4924,7 +4965,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="23" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -4934,27 +4975,27 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="23" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="23" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="23" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="23" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="23" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\autoForSe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F09CD30-074D-44BD-A7D2-232A9C40EF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E89B62-5A28-42C1-B6C8-F399FF372783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="671" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="312">
   <si>
     <t>!</t>
   </si>
@@ -1420,30 +1420,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.22.200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.22.201</t>
-  </si>
-  <si>
-    <t>192.168.22.202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.22.203</t>
-  </si>
-  <si>
-    <t>192.168.22.204</t>
-  </si>
-  <si>
-    <t>192.168.22.205</t>
-  </si>
-  <si>
-    <t>192.168.22.206</t>
-  </si>
-  <si>
-    <t>192.168.22.207</t>
+    <t>192.168.22.255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>***** MGMT 는 사용하시는 IP로 변경하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1763,7 +1745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1863,6 +1845,12 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1872,11 +1860,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2871,7 +2859,7 @@
       <c r="E12" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="33" t="s">
         <v>309</v>
       </c>
       <c r="G12" s="20"/>
@@ -2894,7 +2882,7 @@
       <c r="E13" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="36"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
@@ -2915,7 +2903,7 @@
       <c r="E14" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="34"/>
       <c r="L14" s="12" t="s">
         <v>133</v>
       </c>
@@ -2931,7 +2919,7 @@
         <v>52</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="36"/>
+      <c r="F15" s="34"/>
       <c r="L15" s="12" t="s">
         <v>134</v>
       </c>
@@ -2947,7 +2935,7 @@
       <c r="E16" s="25">
         <v>31</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="34"/>
       <c r="L16" s="12" t="s">
         <v>135</v>
       </c>
@@ -2966,7 +2954,7 @@
         <f>IF(Var_P2P_Subnet_mask=31,0,1)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="36"/>
+      <c r="F17" s="34"/>
       <c r="L17" s="12" t="s">
         <v>136</v>
       </c>
@@ -3619,7 +3607,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I8"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3718,7 +3706,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J3" s="14"/>
       <c r="L3" t="s">
@@ -3751,7 +3739,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J4" s="15"/>
       <c r="L4" t="s">
@@ -3784,7 +3772,7 @@
         <v>23</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J5" s="14"/>
       <c r="L5" t="s">
@@ -3817,7 +3805,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="J6" s="15"/>
     </row>
@@ -3847,7 +3835,7 @@
         <v>167</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="J7" s="14"/>
       <c r="R7" s="5"/>
@@ -3878,7 +3866,7 @@
         <v>168</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="J8" s="15"/>
       <c r="R8" s="5"/>
@@ -3936,11 +3924,22 @@
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="L10" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L10:Q10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3971,24 +3970,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="33"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="4" t="s">
         <v>109</v>
       </c>
